--- a/resources/data/工艺流程转换表_新.xlsx
+++ b/resources/data/工艺流程转换表_新.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changgeng.zhang/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changgeng.zhang/workspace/pay_trial/Robot_Data_Integration_Synchronization_Project/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1F5E76-8FB4-5C4E-97B4-1A6196C4D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7830D5F4-9FA3-5940-A828-58E58D3A283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="50000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -1185,14 +1185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="118.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="9" customWidth="1"/>
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
@@ -1409,8 +1409,8 @@
       <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>39</v>
+      <c r="B27" s="28" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
